--- a/medicine/Sexualité et sexologie/Thierry_Schaffauser/Thierry_Schaffauser.xlsx
+++ b/medicine/Sexualité et sexologie/Thierry_Schaffauser/Thierry_Schaffauser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thierry Schaffauser, né en 1982 à Suresnes,  est un travailleur du sexe et syndicaliste français.
@@ -512,19 +524,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès 18 ans, Thierry Schaffauser rejoint l'association de lutte contre le sida Act Up-Paris, qui lui servira de formation politique. Au sein de cette association et des « Putes », il est également connu sous le pseudonyme de Zezetta Star[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 18 ans, Thierry Schaffauser rejoint l'association de lutte contre le sida Act Up-Paris, qui lui servira de formation politique. Au sein de cette association et des « Putes », il est également connu sous le pseudonyme de Zezetta Star.
 En 2006, il fonde avec Maîtresse Nikita, alias Jean Francois Poupel, le groupe militant « Putes », qui fut à l'origine une émanation d'Act Up-Paris ; il fait partie des organisateurs de la première « Pute Pride ». L'année suivante, ils publient ensemble leur premier pamphlet Fières d'être putes aux éditions L'Altiplano.
-Il est candidat aux élections municipales de mars 2008 dans le 16e arrondissement de Paris sur la liste des Verts menée par Pascale Ourbih[2].
+Il est candidat aux élections municipales de mars 2008 dans le 16e arrondissement de Paris sur la liste des Verts menée par Pascale Ourbih.
 En 2009, il est élu responsable des relations internationales du STRASS, le syndicat du travail sexuel. 
-Il s'installe quelques années à Londres et contribue à la traduction de nombreux articles pour le site internet féministe Cybersolidaires[3]. Dès 2008 et jusqu'à son retour en France, il exerce également en tant qu'acteur dans le porno gay britannique.
+Il s'installe quelques années à Londres et contribue à la traduction de nombreux articles pour le site internet féministe Cybersolidaires. Dès 2008 et jusqu'à son retour en France, il exerce également en tant qu'acteur dans le porno gay britannique.
 Il est élu président de la branche sex work du GMB, troisième syndicat du Royaume-Uni GMB-IUSW and Adult Entertainment branch, ainsi que représentant pour l'Europe du Network of Sex Work Projects (NSWP), une organisation internationale fédérant des militants du mouvement des travailleurs du sexe dans le monde. 
 Début 2010, il devient le secrétaire du SERTUC LGBT Network, qui regroupe des militants syndicalistes LGBT de Londres et de la région Sud-Est du Royaume-Uni. À ce titre, il est l’un des orateurs de la fin de la manifestation lors du rassemblement sur la place Trafalgar Square lors de la Fête du Travail. Durant la soirée Night of the Sense, il reçoit le prix Erotic Award 2010 dans la catégorie travailleur du sexe masculin de l’année.
-En 2013, il se porte candidat à la primaire d'EÉLV en vue des élections municipales de 2014 à Paris[4] mais est éliminé dès le premier tour[5].
-En 2015, il figure sur la liste d'Emmanuelle Cosse, tête de liste EÉLV pour les élections régionales de 2015 en Île-de-France puis sur celle de Claude Bartolone après le premier tour et l'accord PS-EÉLV[6].
-Le 23 août 2016, il se déclare candidat à la primaire écologiste d'EÉLV, qui doit se dérouler en octobre 2016, en vue de l'élection présidentielle française de 2017, mais échoue à recueillir le nombre de parrainages nécessaires pour y être qualifié[7].
-Pressenti pour être le suppléant EÉLV de Douchka Markovic aux élections législatives de 2017 dans la dix-septième circonscription de Paris, il est finalement désinvesti pour avoir posé travesti sur une affiche de campagne postée en ligne[8].
+En 2013, il se porte candidat à la primaire d'EÉLV en vue des élections municipales de 2014 à Paris mais est éliminé dès le premier tour.
+En 2015, il figure sur la liste d'Emmanuelle Cosse, tête de liste EÉLV pour les élections régionales de 2015 en Île-de-France puis sur celle de Claude Bartolone après le premier tour et l'accord PS-EÉLV.
+Le 23 août 2016, il se déclare candidat à la primaire écologiste d'EÉLV, qui doit se dérouler en octobre 2016, en vue de l'élection présidentielle française de 2017, mais échoue à recueillir le nombre de parrainages nécessaires pour y être qualifié.
+Pressenti pour être le suppléant EÉLV de Douchka Markovic aux élections législatives de 2017 dans la dix-septième circonscription de Paris, il est finalement désinvesti pour avoir posé travesti sur une affiche de campagne postée en ligne.
 </t>
         </is>
       </c>
@@ -555,14 +569,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Avec Maîtresse Nikita, Fières d'être putes, Paris, Altiplano, 2007, 123 p. (ISBN 978-2-35346-001-4 et 2353460011, OCLC 85829704, lire en ligne)
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Avec Maîtresse Nikita, Fières d'être putes, Paris, Altiplano, 2007, 123 p. (ISBN 978-2-35346-001-4 et 2353460011, OCLC 85829704, lire en ligne)
 Avec Elsa Dorlin et Éric Fassin, Act Up in Genres et Sexualités, Paris, BPI du Centre national d'art et de culture Georges-Pompidou, 2009, 232 p. (ISBN 978-2-84246-117-1) Genres et Sexualités
 Les Luttes des putes, Paris, La Fabrique, 2014, 239 p. (ISBN 978-2-35872-061-8 et 2358720615, OCLC 897741361, lire en ligne).
 • Aurélia Léon, « Thierry Schaffauser, ‘’Les luttes des putes’’ », Lectures,‎ 26 mars 2014 (ISSN 2116-5289, lire en ligne, consulté le 24 avril 2018).
-• Son livre a été critiqué pour ses bases libérales et son absence d'analyses (pro)féministes par un anti-masculiniste, Yeun Lagadeuc-Ygouf (lire).
-Articles
-Avec Claire Carthonnet, Sonia Verstappen et Maîtresse Nikita, « Non à la pénalisation de nos clients », Libération,‎ 12 juillet 2006 (lire en ligne)
+• Son livre a été critiqué pour ses bases libérales et son absence d'analyses (pro)féministes par un anti-masculiniste, Yeun Lagadeuc-Ygouf (lire).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thierry_Schaffauser</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Schaffauser</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Avec Claire Carthonnet, Sonia Verstappen et Maîtresse Nikita, « Non à la pénalisation de nos clients », Libération,‎ 12 juillet 2006 (lire en ligne)
 « Opinions &amp; Débats : « Sortir du placard de la prostitution » », sur Yagg, 19 mars 2009
 « Assistante sexuelle, un homme comme les autres », Libération,‎ 12 août 2009 (lire en ligne)
 (en) « New Worker Features: Sex workers -- a queer perspective », New Worker,‎ 29 août 2009 (lire en ligne)
@@ -578,31 +631,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Thierry_Schaffauser</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thierry_Schaffauser</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Scallies Auditions, Triga
 Young Offenders, Triga production
@@ -611,7 +666,7 @@
 Arse Splitters-Rudeboiz 14, Eurocreme
 Pool Room Scallies, Triga
 Breaking'Em in, Eurocreme
-You don't own me, Rémy Yadan[9]</t>
+You don't own me, Rémy Yadan</t>
         </is>
       </c>
     </row>
